--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9862FE3E-F28C-49CB-B73D-1AEB3264BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A55F98-F6C0-43FA-82A5-4CE05B6B3D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{35897A6C-73EE-4873-8B99-8E7A6D5A7BFE}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{CD371C17-72D8-43DF-BAEC-94BE6C03E068}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1E1DBF-19F2-4FA6-B1B9-3EA705A41A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC44BD55-080F-47C4-9484-9FBBB8AC52A7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
